--- a/Simulations/BLDC_motor_driver_and_controller/OpenLoopResults.xlsx
+++ b/Simulations/BLDC_motor_driver_and_controller/OpenLoopResults.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -44,12 +45,33 @@
   <si>
     <t>Efficiency</t>
   </si>
+  <si>
+    <t>Items No.</t>
+  </si>
+  <si>
+    <t>Volatge V</t>
+  </si>
+  <si>
+    <t>Torque N.m</t>
+  </si>
+  <si>
+    <t>Roate Rpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.Output </t>
+  </si>
+  <si>
+    <t>Effciency %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +87,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,14 +125,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,8 +996,24 @@
       <c r="B21">
         <v>48</v>
       </c>
+      <c r="C21">
+        <v>86.25</v>
+      </c>
+      <c r="D21">
+        <v>4141.5</v>
+      </c>
       <c r="E21">
         <v>12.2</v>
+      </c>
+      <c r="F21">
+        <v>2604.5</v>
+      </c>
+      <c r="G21">
+        <v>3588.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>86.647349993963545</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,8 +1023,24 @@
       <c r="B22">
         <v>48</v>
       </c>
+      <c r="C22">
+        <v>93.02</v>
+      </c>
+      <c r="D22">
+        <v>4464.5</v>
+      </c>
       <c r="E22">
         <v>14</v>
+      </c>
+      <c r="F22">
+        <v>2357.8000000000002</v>
+      </c>
+      <c r="G22">
+        <v>3810.1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>85.342143577108303</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,8 +1050,24 @@
       <c r="B23">
         <v>48</v>
       </c>
+      <c r="C23">
+        <v>103.3</v>
+      </c>
+      <c r="D23">
+        <v>4958.5</v>
+      </c>
       <c r="E23">
         <v>16.8</v>
+      </c>
+      <c r="F23">
+        <v>2041.2</v>
+      </c>
+      <c r="G23">
+        <v>3988.5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>80.437632348492485</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,6 +1095,701 @@
       <c r="H24">
         <f t="shared" si="0"/>
         <v>73.061195837208885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5">
+        <v>14.87</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>713.76</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4489</v>
+      </c>
+      <c r="G2" s="4">
+        <v>371</v>
+      </c>
+      <c r="H2" s="5">
+        <f>G2/D2*100</f>
+        <v>51.97825599641336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D24" si="0">B3*C3</f>
+        <v>734.40000000000009</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4487</v>
+      </c>
+      <c r="G3" s="4">
+        <v>433</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H24" si="1">G3/D3*100</f>
+        <v>58.959694989106751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>807.36</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4480</v>
+      </c>
+      <c r="G4" s="4">
+        <v>494</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>61.187078874355926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>868.80000000000007</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4472</v>
+      </c>
+      <c r="G5" s="4">
+        <v>554</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>63.766114180478816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>19.91</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>955.68000000000006</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4461</v>
+      </c>
+      <c r="G6" s="4">
+        <v>676</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>70.734974049891179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5">
+        <v>26.16</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>1255.68</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4421</v>
+      </c>
+      <c r="G7" s="4">
+        <v>975</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>77.64717125382262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30.02</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>1440.96</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4396</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1152</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>79.946702198534297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34.17</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>1640.16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4366</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1384</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>84.382011511072079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5">
+        <v>38.39</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>1842.72</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4339</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1615</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>87.642181123556483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43.64</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>2094.7200000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4308</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1841</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>87.887641307668801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5">
+        <v>49.07</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>2355.36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4267</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2061</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>87.502547381292032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>54.37</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>2609.7599999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4234</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2338</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>89.58678192630741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5">
+        <v>59.81</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2870.88</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2610</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>90.912890820932944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5">
+        <v>65.69</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>3153.12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4159</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2866</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>90.894098543664697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>3454.08</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4119</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3180</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>92.065036131184002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5">
+        <v>78.72</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>3778.56</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4078</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3425</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>90.64299627371274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
+        <v>87.2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>4185.6000000000004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4017</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3773</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>90.142392966360845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5">
+        <v>94.31</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>4526.88</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3914</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4098</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>90.52592514049411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5">
+        <v>94.55</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>4538.3999999999996</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3578</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4084</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>89.987660849638644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5">
+        <v>94.83</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>4551.84</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3170</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4050</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>88.975007908889594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5">
+        <v>94.6</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>4540.7999999999993</v>
+      </c>
+      <c r="E22" s="4">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2632</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3859</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>84.985024665257242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <v>93.03</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>4465.4400000000005</v>
+      </c>
+      <c r="E23" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2167</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3812</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>85.366727578917192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5">
+        <v>92.81</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>4454.88</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1508</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3284</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="1"/>
+        <v>73.716912689006207</v>
       </c>
     </row>
   </sheetData>
